--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -659,9 +659,13 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Naraynaik</t>
+        </is>
+      </c>
       <c r="D10" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -722,9 +726,13 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Naraynaik</t>
+        </is>
+      </c>
       <c r="D13" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -852,9 +860,13 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Narayan</t>
+        </is>
+      </c>
       <c r="D19" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -873,9 +885,13 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Raj</t>
+        </is>
+      </c>
       <c r="D20" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -915,9 +931,13 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Narayan</t>
+        </is>
+      </c>
       <c r="D22" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -936,9 +956,13 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Raj</t>
+        </is>
+      </c>
       <c r="D23" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1129,9 +1153,13 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr"/>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Kiran</t>
+        </is>
+      </c>
       <c r="D32" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1196,9 +1224,13 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr"/>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Kiran</t>
+        </is>
+      </c>
       <c r="D35" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1263,13 +1295,17 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr"/>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Kiran</t>
+        </is>
+      </c>
       <c r="D38" t="n">
         <v>30</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Recurring</t>
         </is>
       </c>
     </row>
@@ -1632,13 +1668,17 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr"/>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Naraynaik</t>
+        </is>
+      </c>
       <c r="D55" t="n">
         <v>30</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Recurring</t>
         </is>
       </c>
     </row>
@@ -1699,9 +1739,13 @@
           <t>19:00</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr"/>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Ram</t>
+        </is>
+      </c>
       <c r="D58" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -1762,9 +1806,13 @@
           <t>19:30</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr"/>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Ram</t>
+        </is>
+      </c>
       <c r="D61" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -1829,13 +1877,17 @@
           <t>20:00</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr"/>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Ram</t>
+        </is>
+      </c>
       <c r="D64" t="n">
         <v>30</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Recurring</t>
         </is>
       </c>
     </row>
